--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面_rev.2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面_rev.2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EB7E33-DE10-4AF6-BB67-C05DA058F245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F3E9D-13E1-4617-8937-D5EE6CF4A7A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1459,6 +1459,17 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1822,6 +1833,99 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,99 +1967,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2250,180 +2261,180 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="68" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="69" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="45" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="45"/>
+    <col min="1" max="1" width="3.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="31" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="54" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A2" s="46">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="34">
         <v>45553</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" s="58" customFormat="1" ht="23.15" x14ac:dyDescent="0.65">
-      <c r="A3" s="46">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="39">
         <v>45616</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A4" s="46">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A5" s="46">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A6" s="46">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A7" s="46">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A8" s="46">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A9" s="46">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A10" s="61">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A11" s="46">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A12" s="46">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="C13" s="67"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2435,43 +2446,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A50"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="46.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="10" width="46.875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="18" t="s">
         <v>94</v>
       </c>
@@ -2482,11 +2493,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="5" t="s">
         <v>95</v>
       </c>
@@ -2498,27 +2509,27 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
         <v>93</v>
       </c>
@@ -2528,14 +2539,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -2555,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2584,16 +2595,16 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="56" t="s">
         <v>109</v>
       </c>
       <c r="F8" s="11"/>
@@ -2603,15 +2614,21 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="71" t="s">
+      <c r="M8" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="14">
+        <v>45643</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2640,7 +2657,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2665,7 +2682,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2690,7 +2707,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2715,7 +2732,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2740,7 +2757,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2771,7 +2788,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2798,7 +2815,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2825,7 +2842,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2852,7 +2869,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -2883,7 +2900,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -2908,7 +2925,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -2933,7 +2950,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -2958,7 +2975,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -2983,7 +3000,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -3008,7 +3025,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -3033,7 +3050,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -3058,7 +3075,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -3091,7 +3108,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -3118,7 +3135,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -3145,7 +3162,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -3170,7 +3187,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -3197,7 +3214,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -3222,7 +3239,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -3247,7 +3264,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -3272,7 +3289,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -3297,7 +3314,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -3322,7 +3339,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -3353,7 +3370,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>31</v>
       </c>
@@ -3376,7 +3393,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>32</v>
       </c>
@@ -3399,7 +3416,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>33</v>
       </c>
@@ -3432,7 +3449,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>34</v>
       </c>
@@ -3459,7 +3476,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>35</v>
       </c>
@@ -3484,7 +3501,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>36</v>
       </c>
@@ -3513,7 +3530,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>37</v>
       </c>
@@ -3538,7 +3555,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>38</v>
       </c>
@@ -3563,7 +3580,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>39</v>
       </c>
@@ -3588,7 +3605,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>40</v>
       </c>
@@ -3613,7 +3630,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>41</v>
       </c>
@@ -3638,7 +3655,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>42</v>
       </c>
@@ -3669,7 +3686,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>43</v>
       </c>
@@ -3692,7 +3709,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>44</v>
       </c>
@@ -3719,7 +3736,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="9"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3977,15 +3994,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -3996,14 +4004,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55128FF9-171C-4365-978A-C8BB0D239986}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55128FF9-171C-4365-978A-C8BB0D239986}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2ADCAF8-EB0E-4C10-957A-05D38D04848F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3F1A7FB-59B5-4155-A2B0-6BCB2FC8A3A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3F1A7FB-59B5-4155-A2B0-6BCB2FC8A3A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2ADCAF8-EB0E-4C10-957A-05D38D04848F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>